--- a/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_-50%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Unchock Time/UnchockTime10 aircraft 9_1_-50%.xlsx
@@ -68828,6 +68828,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>12.53716666666667</v>
+      </c>
       <c r="C2" t="n">
         <v>391.2177777777778</v>
       </c>
@@ -68883,6 +68886,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>13.10633333333333</v>
+      </c>
       <c r="C3" t="n">
         <v>429.5905555555555</v>
       </c>
@@ -68938,6 +68944,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>13.20366666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>427.4144444444445</v>
       </c>
@@ -68993,6 +69002,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>12.8945</v>
+      </c>
       <c r="C5" t="n">
         <v>427.2022222222222</v>
       </c>
@@ -69048,6 +69060,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>12.29466666666667</v>
+      </c>
       <c r="C6" t="n">
         <v>409.4677777777778</v>
       </c>
@@ -69103,6 +69118,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.47466666666667</v>
+      </c>
       <c r="C7" t="n">
         <v>402.6938888888889</v>
       </c>
@@ -69158,6 +69176,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>12.32433333333333</v>
+      </c>
       <c r="C8" t="n">
         <v>411.0083333333333</v>
       </c>
@@ -69213,6 +69234,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>12.64966666666667</v>
+      </c>
       <c r="C9" t="n">
         <v>412.5644444444444</v>
       </c>
@@ -69268,6 +69292,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>12.48033333333333</v>
+      </c>
       <c r="C10" t="n">
         <v>422.3655555555556</v>
       </c>
@@ -69323,6 +69350,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>11.80283333333333</v>
+      </c>
       <c r="C11" t="n">
         <v>396.6088888888888</v>
       </c>
@@ -69378,6 +69408,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>12.16483333333333</v>
+      </c>
       <c r="C12" t="n">
         <v>417.0127777777777</v>
       </c>
@@ -69433,6 +69466,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>13.262</v>
+      </c>
       <c r="C13" t="n">
         <v>438.1716666666667</v>
       </c>
@@ -69488,6 +69524,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>11.88016666666667</v>
+      </c>
       <c r="C14" t="n">
         <v>403.7133333333333</v>
       </c>
@@ -69543,6 +69582,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>11.73233333333333</v>
+      </c>
       <c r="C15" t="n">
         <v>397.041111111111</v>
       </c>
@@ -69598,6 +69640,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>12.91133333333334</v>
+      </c>
       <c r="C16" t="n">
         <v>411.2588888888889</v>
       </c>
@@ -69653,6 +69698,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.166</v>
+      </c>
       <c r="C17" t="n">
         <v>421.4733333333333</v>
       </c>
@@ -69708,6 +69756,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>13.09</v>
+      </c>
       <c r="C18" t="n">
         <v>391.295</v>
       </c>
@@ -69763,6 +69814,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>12.46816666666667</v>
+      </c>
       <c r="C19" t="n">
         <v>396.3527777777778</v>
       </c>
@@ -69818,6 +69872,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>13.382</v>
+      </c>
       <c r="C20" t="n">
         <v>421.6988888888889</v>
       </c>
@@ -69873,6 +69930,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>11.05966666666667</v>
+      </c>
       <c r="C21" t="n">
         <v>424.0227777777778</v>
       </c>
@@ -69928,6 +69988,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>11.71966666666667</v>
+      </c>
       <c r="C22" t="n">
         <v>407.4294444444445</v>
       </c>
@@ -69983,6 +70046,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>12.2655</v>
+      </c>
       <c r="C23" t="n">
         <v>411.3311111111112</v>
       </c>
@@ -70038,6 +70104,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>11.3355</v>
+      </c>
       <c r="C24" t="n">
         <v>403.9888888888888</v>
       </c>
@@ -70093,6 +70162,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>13.45733333333333</v>
+      </c>
       <c r="C25" t="n">
         <v>385.5427777777778</v>
       </c>
@@ -70148,6 +70220,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>13.372</v>
+      </c>
       <c r="C26" t="n">
         <v>420.0655555555555</v>
       </c>
@@ -70203,6 +70278,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.40133333333333</v>
+      </c>
       <c r="C27" t="n">
         <v>396.945</v>
       </c>
@@ -70258,6 +70336,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>12.4525</v>
+      </c>
       <c r="C28" t="n">
         <v>413.0522222222222</v>
       </c>
@@ -70313,6 +70394,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.05783333333333</v>
+      </c>
       <c r="C29" t="n">
         <v>402.6977777777778</v>
       </c>
@@ -70368,6 +70452,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>12.79616666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>394.9172222222222</v>
       </c>
@@ -70422,6 +70509,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>11.85866666666667</v>
       </c>
       <c r="C31" t="n">
         <v>423.6244444444444</v>
